--- a/account1.xlsx
+++ b/account1.xlsx
@@ -527,7 +527,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
